--- a/plan/work/september.xlsx
+++ b/plan/work/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>日期</t>
   </si>
@@ -43,6 +43,15 @@
   <si>
     <t>根据工作安排,制定好本周的工作计划</t>
   </si>
+  <si>
+    <t>卸载重装，安装完vs2013</t>
+  </si>
+  <si>
+    <t>vs2013与unity之间的调试</t>
+  </si>
+  <si>
+    <t>项目功能模块断点调试</t>
+  </si>
 </sst>
 </file>
 
@@ -54,7 +63,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,23 +72,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,73 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -168,47 +169,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,43 +225,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +351,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,127 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +416,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,36 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -519,152 +521,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +678,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1021,13 +1026,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
@@ -1073,9 +1078,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
+        <v>42620</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/plan/work/september.xlsx
+++ b/plan/work/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>日期</t>
   </si>
@@ -47,10 +47,22 @@
     <t>卸载重装，安装完vs2013</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>vs2013与unity之间的调试</t>
   </si>
   <si>
     <t>项目功能模块断点调试</t>
+  </si>
+  <si>
+    <t>问答提交</t>
+  </si>
+  <si>
+    <t>readme填写，下班前</t>
+  </si>
+  <si>
+    <t>登录协议的创建，赋值，发送</t>
   </si>
 </sst>
 </file>
@@ -59,11 +71,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,60 +85,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,6 +122,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -146,18 +188,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,25 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,13 +214,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -210,7 +222,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,43 +244,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,139 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,36 +435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,15 +479,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -516,6 +496,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -524,149 +543,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +697,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,13 +1048,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
@@ -1078,30 +1100,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
         <v>42620</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4"/>
-      <c r="B7" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4"/>
-      <c r="B8" t="s">
-        <v>10</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5">
+        <v>42621</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>42622</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/plan/work/september.xlsx
+++ b/plan/work/september.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>日期</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>登录协议的创建，赋值，发送</t>
+  </si>
+  <si>
+    <t>本周工作计划制定</t>
+  </si>
+  <si>
+    <t>c#学习，不懂得问周边的同事</t>
   </si>
 </sst>
 </file>
@@ -91,16 +97,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,16 +164,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,66 +212,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,22 +235,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,109 +250,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,55 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +441,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,35 +470,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,16 +513,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,16 +561,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,119 +579,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,9 +706,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1048,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1130,7 +1133,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>42621</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1138,13 +1141,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1161,25 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>42625</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>

--- a/plan/work/september.xlsx
+++ b/plan/work/september.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18585" windowHeight="7860"/>
+    <workbookView windowWidth="18570" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>c#学习，不懂得问周边的同事</t>
+  </si>
+  <si>
+    <t>世界ui界面了解</t>
   </si>
 </sst>
 </file>
@@ -78,10 +81,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,7 +101,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="3" tint="0.6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,21 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +215,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +236,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -156,86 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +260,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,43 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,127 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +458,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,35 +489,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +527,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -549,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,137 +571,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +715,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1169,17 +1182,30 @@
       <c r="A15" s="1">
         <v>42625</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>42627</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>13</v>
       </c>
     </row>

--- a/plan/work/september.xlsx
+++ b/plan/work/september.xlsx
@@ -79,9 +79,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -107,11 +107,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,122 +228,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,181 +266,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,8 +457,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,12 +489,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -493,7 +517,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,30 +551,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1200,12 +1200,12 @@
       <c r="A19" s="1">
         <v>42627</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
